--- a/Dataset2.xlsx
+++ b/Dataset2.xlsx
@@ -18,9 +18,580 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="180">
+  <si>
+    <t>НАЗВАНИЕ</t>
+  </si>
+  <si>
+    <t>ЦВЕТ ФОНА</t>
+  </si>
+  <si>
+    <t>ФОРМА</t>
+  </si>
+  <si>
+    <t>ТИП</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>предупреждающий</t>
+  </si>
+  <si>
+    <t>Однопутная железная дорога</t>
+  </si>
+  <si>
+    <t>крест</t>
+  </si>
+  <si>
+    <t>Многопутная железная дорога</t>
+  </si>
+  <si>
+    <t>ЦВЕТ РАМКИ</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>крест с полукрестом</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>треугольник</t>
+  </si>
+  <si>
+    <t>прямоугольник</t>
+  </si>
+  <si>
+    <t>Пересечение с трамвайной линией</t>
+  </si>
+  <si>
+    <t>Пересечение равнозначных дорог</t>
+  </si>
+  <si>
+    <t>Пересечение с круговым движением</t>
+  </si>
+  <si>
+    <t>Светофорное регулирование</t>
+  </si>
+  <si>
+    <t>Разводной мост</t>
+  </si>
+  <si>
+    <t>Выезд на набережную</t>
+  </si>
+  <si>
+    <t>Опасный поворот</t>
+  </si>
+  <si>
+    <t>Опасные повороты</t>
+  </si>
+  <si>
+    <t>Крутой спуск</t>
+  </si>
+  <si>
+    <t>Крутой подъем</t>
+  </si>
+  <si>
+    <t>Скользкая дорога</t>
+  </si>
+  <si>
+    <t>Неровная дорога</t>
+  </si>
+  <si>
+    <t>Искусственная неровность</t>
+  </si>
+  <si>
+    <t>Выброс гравия</t>
+  </si>
+  <si>
+    <t>Опасная обочина</t>
+  </si>
+  <si>
+    <t>Сужение дороги</t>
+  </si>
+  <si>
+    <t>Двустороннее движение</t>
+  </si>
+  <si>
+    <t>Пешеходный переход</t>
+  </si>
+  <si>
+    <t>Дети</t>
+  </si>
+  <si>
+    <t>Дорожные работы</t>
+  </si>
+  <si>
+    <t>Перегон скота</t>
+  </si>
+  <si>
+    <t>Дикие животные</t>
+  </si>
+  <si>
+    <t>Падение камней</t>
+  </si>
+  <si>
+    <t>Боковой ветер</t>
+  </si>
+  <si>
+    <t>Низколетящие самолеты</t>
+  </si>
+  <si>
+    <t>Тоннель</t>
+  </si>
+  <si>
+    <t>Затор</t>
+  </si>
+  <si>
+    <t>Прочие опасности</t>
+  </si>
+  <si>
+    <t>Направление поворота</t>
+  </si>
+  <si>
+    <t>Участок перекрестка</t>
+  </si>
+  <si>
+    <t>Пересечение с велосипедной дорожкой 
+или велопешеходной дорожкой</t>
+  </si>
+  <si>
+    <t>Железнодорожный переезд 
+со шлагбаумом</t>
+  </si>
+  <si>
+    <t>Железнодорожный переезд
+ без шлагбаума</t>
+  </si>
+  <si>
+    <t>Приближение к железнодорожному
+ переезду</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>Главная дорога</t>
+  </si>
+  <si>
+    <t>Конец главной дороги</t>
+  </si>
+  <si>
+    <t>Пересечение со второстепенной дорогой</t>
+  </si>
+  <si>
+    <t>Примыкание второстепенной дороги</t>
+  </si>
+  <si>
+    <t>Уступите дорогу</t>
+  </si>
+  <si>
+    <t>Движение без остановки запрещено</t>
+  </si>
+  <si>
+    <t>Преимущество встречного движения</t>
+  </si>
+  <si>
+    <t>Преимущество перед встречным движением</t>
+  </si>
+  <si>
+    <t>ромб</t>
+  </si>
+  <si>
+    <t>приоритета</t>
+  </si>
+  <si>
+    <t>восьмиугольник</t>
+  </si>
+  <si>
+    <t>круг</t>
+  </si>
+  <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>квадрат</t>
+  </si>
+  <si>
+    <t>Въезд запрещен</t>
+  </si>
+  <si>
+    <t>Движение запрещено</t>
+  </si>
+  <si>
+    <t>Движение грузовых автомобилей запрещено</t>
+  </si>
+  <si>
+    <t>Движение мотоциклов запрещено</t>
+  </si>
+  <si>
+    <t>Движение тракторов запрещено</t>
+  </si>
+  <si>
+    <t>Движение с прицепом запрещено</t>
+  </si>
+  <si>
+    <t>Движение гужевых повозок запрещено</t>
+  </si>
+  <si>
+    <t>Движение на велосипедах запрещено</t>
+  </si>
+  <si>
+    <t>Движение пешеходов запрещено</t>
+  </si>
+  <si>
+    <t>Ограничение массы</t>
+  </si>
+  <si>
+    <t>Ограничение высоты</t>
+  </si>
+  <si>
+    <t>Ограничение ширины</t>
+  </si>
+  <si>
+    <t>Ограничение длины</t>
+  </si>
+  <si>
+    <t>Ограничение минимальной дистанции</t>
+  </si>
+  <si>
+    <t>Таможня</t>
+  </si>
+  <si>
+    <t>Опасность</t>
+  </si>
+  <si>
+    <t>Контроль</t>
+  </si>
+  <si>
+    <t>Поворот направо запрещен</t>
+  </si>
+  <si>
+    <t>Поворот налево запрещен</t>
+  </si>
+  <si>
+    <t>Разворот запрещен</t>
+  </si>
+  <si>
+    <t>Обгон запрещен</t>
+  </si>
+  <si>
+    <t>Конец зоны запрещения обгона</t>
+  </si>
+  <si>
+    <t>Обгон грузовым автомобилям запрещен</t>
+  </si>
+  <si>
+    <t>Ограничение максимальной скорости</t>
+  </si>
+  <si>
+    <t>Подача звукового сигнала запрещена</t>
+  </si>
+  <si>
+    <t>Остановка запрещена</t>
+  </si>
+  <si>
+    <t>Стоянка запрещена</t>
+  </si>
+  <si>
+    <t>Конец зоны всех ограничений</t>
+  </si>
+  <si>
+    <t>Движение автобусов запрещено</t>
+  </si>
+  <si>
+    <t>Движение механических транспортных
+ средств запрещено</t>
+  </si>
+  <si>
+    <t>Ограничение массы, приходящейся
+ на ось транспортного средства</t>
+  </si>
+  <si>
+    <t>Конец зоны запрещения обгона
+ грузовым автомобилям</t>
+  </si>
+  <si>
+    <t>Конец зоны ограничения 
+максимальной скорости</t>
+  </si>
+  <si>
+    <t>Стоянка запрещена по нечетным
+ числам месяца</t>
+  </si>
+  <si>
+    <t>Стоянка запрещена по четным
+ числам месяца</t>
+  </si>
+  <si>
+    <t>Движение транспортных средств
+ с опасными грузами запрещено</t>
+  </si>
+  <si>
+    <t>"Движение транспортных средств
+ с взрывчатыми и
+ легковоспламеняющимися
+ грузами запрещено</t>
+  </si>
+  <si>
+    <t>Движение на средствах 
+индивидуальной мобильности запрещено</t>
+  </si>
+  <si>
+    <t>РИСУНОК</t>
+  </si>
+  <si>
+    <t>запрещающий</t>
+  </si>
+  <si>
+    <t>рельсы</t>
+  </si>
+  <si>
+    <t>поезд</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>линии</t>
+  </si>
+  <si>
+    <t>трамвай</t>
+  </si>
+  <si>
+    <t>стрелки</t>
+  </si>
+  <si>
+    <t>светофор</t>
+  </si>
+  <si>
+    <t>мост</t>
+  </si>
+  <si>
+    <t>берег,река,машина</t>
+  </si>
+  <si>
+    <t>дорога</t>
+  </si>
+  <si>
+    <t>дорога,число</t>
+  </si>
+  <si>
+    <t>кочки</t>
+  </si>
+  <si>
+    <t>искусственная неровность</t>
+  </si>
+  <si>
+    <t>машина,камни</t>
+  </si>
+  <si>
+    <t>дорога,машина</t>
+  </si>
+  <si>
+    <t>машина,дорога</t>
+  </si>
+  <si>
+    <t>человек,дорога</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>велосипед</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>корова</t>
+  </si>
+  <si>
+    <t>олень</t>
+  </si>
+  <si>
+    <t>камни</t>
+  </si>
+  <si>
+    <t>флюгер</t>
+  </si>
+  <si>
+    <t>самолет</t>
+  </si>
+  <si>
+    <t>тоннель</t>
+  </si>
+  <si>
+    <t>машины</t>
+  </si>
+  <si>
+    <t>восклицательный знак</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>машина</t>
+  </si>
+  <si>
+    <t>грузовик</t>
+  </si>
+  <si>
+    <t>мотоцикл</t>
+  </si>
+  <si>
+    <t>прицеп</t>
+  </si>
+  <si>
+    <t>гужевая повозка</t>
+  </si>
+  <si>
+    <t>человек,линия</t>
+  </si>
+  <si>
+    <t>число,текст</t>
+  </si>
+  <si>
+    <t>грузовик,число,текст</t>
+  </si>
+  <si>
+    <t>машины,число,текст</t>
+  </si>
+  <si>
+    <t>стрелка,линия</t>
+  </si>
+  <si>
+    <t>машина,грузовик</t>
+  </si>
+  <si>
+    <t>машины,линии</t>
+  </si>
+  <si>
+    <t>машина,грузовик,линии</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>число,линии</t>
+  </si>
+  <si>
+    <t>клаксон,линия</t>
+  </si>
+  <si>
+    <t>линия</t>
+  </si>
+  <si>
+    <t>число,линия</t>
+  </si>
+  <si>
+    <t>машина,огонь</t>
+  </si>
+  <si>
+    <t>автобус</t>
+  </si>
+  <si>
+    <t>человек,самокат</t>
+  </si>
+  <si>
+    <t>предписывающий</t>
+  </si>
+  <si>
+    <t>Движение прямо</t>
+  </si>
+  <si>
+    <t>Движение направо</t>
+  </si>
+  <si>
+    <t>Движение налево</t>
+  </si>
+  <si>
+    <t>Движение прямо или направо</t>
+  </si>
+  <si>
+    <t>Движение прямо или налево</t>
+  </si>
+  <si>
+    <t>Движение направо или налево</t>
+  </si>
+  <si>
+    <t>Объезд препятствия справа</t>
+  </si>
+  <si>
+    <t>Объезд препятствия слева</t>
+  </si>
+  <si>
+    <t>Объезд препятствия справа или слева</t>
+  </si>
+  <si>
+    <t>Круговое движение</t>
+  </si>
+  <si>
+    <t>Велосипедная дорожка</t>
+  </si>
+  <si>
+    <t>Конец велосипедной дорожки</t>
+  </si>
+  <si>
+    <t>Пешеходная дорожка</t>
+  </si>
+  <si>
+    <t>Пешеходная и велосипедная дорожка 
+с совмещенным движением 
+(велопешеходная дорожка с совмещенным 
+движением)</t>
+  </si>
+  <si>
+    <t>Конец пешеходной и велосипедной дорожки 
+с совмещенным движением (конец 
+велопешеходной дорожки с совмещенным 
+движением)</t>
+  </si>
+  <si>
+    <t>Пешеходная и велосипедная дорожка с 
+разделением движения</t>
+  </si>
+  <si>
+    <t>Конец пешеходной и велосипедной дорожки с 
+разделением движения (конец велопешеходной 
+дорожки с разделением движения)</t>
+  </si>
+  <si>
+    <t>Ограничение минимальной скорости</t>
+  </si>
+  <si>
+    <t>Конец зоны ограничения минимальной 
+скорости</t>
+  </si>
+  <si>
+    <t>Направление движения транспортных 
+средств с опасными грузами</t>
+  </si>
+  <si>
+    <t>стрелка</t>
+  </si>
+  <si>
+    <t>велосипед,линия</t>
+  </si>
+  <si>
+    <t>человек,велосипед</t>
+  </si>
+  <si>
+    <t>человек,велосипед,линия</t>
+  </si>
+  <si>
+    <t>грузовик,стрелка</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +599,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +658,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +734,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +774,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +956,2084 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>